--- a/results/mp/tinybert/home-spam/confidence/42/stop-words-topk-0.5/avg_0.004_scores.xlsx
+++ b/results/mp/tinybert/home-spam/confidence/42/stop-words-topk-0.5/avg_0.004_scores.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="83" uniqueCount="75">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="86" uniqueCount="78">
   <si>
     <t>anchor score</t>
   </si>
@@ -40,12 +40,12 @@
     <t>name</t>
   </si>
   <si>
+    <t>disappointed</t>
+  </si>
+  <si>
     <t>returned</t>
   </si>
   <si>
-    <t>disappointed</t>
-  </si>
-  <si>
     <t>broke</t>
   </si>
   <si>
@@ -64,175 +64,184 @@
     <t>love</t>
   </si>
   <si>
+    <t>pleased</t>
+  </si>
+  <si>
+    <t>best</t>
+  </si>
+  <si>
     <t>salad</t>
   </si>
   <si>
-    <t>best</t>
-  </si>
-  <si>
-    <t>pleased</t>
+    <t>great</t>
   </si>
   <si>
     <t>perfect</t>
   </si>
   <si>
-    <t>beautiful</t>
+    <t>daughter</t>
+  </si>
+  <si>
+    <t>loved</t>
+  </si>
+  <si>
+    <t>thank</t>
+  </si>
+  <si>
+    <t>happy</t>
+  </si>
+  <si>
+    <t>awesome</t>
+  </si>
+  <si>
+    <t>family</t>
+  </si>
+  <si>
+    <t>cakes</t>
+  </si>
+  <si>
+    <t>cheese</t>
+  </si>
+  <si>
+    <t>cake</t>
+  </si>
+  <si>
+    <t>husband</t>
+  </si>
+  <si>
+    <t>cooke</t>
+  </si>
+  <si>
+    <t>ever</t>
+  </si>
+  <si>
+    <t>sturdy</t>
   </si>
   <si>
     <t>christmas</t>
   </si>
   <si>
-    <t>happy</t>
-  </si>
-  <si>
-    <t>great</t>
-  </si>
-  <si>
-    <t>awesome</t>
+    <t>gift</t>
   </si>
   <si>
     <t>wife</t>
   </si>
   <si>
-    <t>cooke</t>
-  </si>
-  <si>
-    <t>cakes</t>
-  </si>
-  <si>
-    <t>cake</t>
-  </si>
-  <si>
-    <t>sturdy</t>
-  </si>
-  <si>
-    <t>cheese</t>
-  </si>
-  <si>
-    <t>loved</t>
-  </si>
-  <si>
-    <t>ever</t>
-  </si>
-  <si>
-    <t>husband</t>
-  </si>
-  <si>
-    <t>daughter</t>
+    <t>potatoes</t>
+  </si>
+  <si>
+    <t>ze</t>
+  </si>
+  <si>
+    <t>nice</t>
   </si>
   <si>
     <t>perfectly</t>
   </si>
   <si>
-    <t>gift</t>
-  </si>
-  <si>
-    <t>nice</t>
-  </si>
-  <si>
     <t>years</t>
   </si>
   <si>
+    <t>old</t>
+  </si>
+  <si>
+    <t>day</t>
+  </si>
+  <si>
+    <t>easy</t>
+  </si>
+  <si>
+    <t>good</t>
+  </si>
+  <si>
+    <t>kitchen</t>
+  </si>
+  <si>
     <t>bread</t>
   </si>
   <si>
-    <t>cooking</t>
-  </si>
-  <si>
-    <t>popcorn</t>
-  </si>
-  <si>
-    <t>kitchen</t>
-  </si>
-  <si>
-    <t>easy</t>
-  </si>
-  <si>
-    <t>old</t>
-  </si>
-  <si>
-    <t>good</t>
+    <t>highly</t>
   </si>
   <si>
     <t>tea</t>
   </si>
   <si>
+    <t>pan</t>
+  </si>
+  <si>
+    <t>keeps</t>
+  </si>
+  <si>
+    <t>well</t>
+  </si>
+  <si>
     <t>cook</t>
   </si>
   <si>
-    <t>keeps</t>
-  </si>
-  <si>
-    <t>pan</t>
-  </si>
-  <si>
     <t>works</t>
   </si>
   <si>
-    <t>well</t>
-  </si>
-  <si>
     <t>far</t>
   </si>
   <si>
+    <t>new</t>
+  </si>
+  <si>
+    <t>little</t>
+  </si>
+  <si>
     <t>recommend</t>
   </si>
   <si>
+    <t>every</t>
+  </si>
+  <si>
+    <t>quality</t>
+  </si>
+  <si>
     <t>clean</t>
   </si>
   <si>
-    <t>quality</t>
-  </si>
-  <si>
     <t>bought</t>
   </si>
   <si>
-    <t>cup</t>
+    <t>coffee</t>
+  </si>
+  <si>
+    <t>make</t>
+  </si>
+  <si>
+    <t>makes</t>
+  </si>
+  <si>
+    <t>really</t>
+  </si>
+  <si>
+    <t>like</t>
+  </si>
+  <si>
+    <t>also</t>
   </si>
   <si>
     <t>hot</t>
   </si>
   <si>
-    <t>coffee</t>
-  </si>
-  <si>
-    <t>little</t>
-  </si>
-  <si>
-    <t>every</t>
-  </si>
-  <si>
-    <t>make</t>
-  </si>
-  <si>
-    <t>makes</t>
-  </si>
-  <si>
-    <t>really</t>
-  </si>
-  <si>
-    <t>job</t>
-  </si>
-  <si>
     <t>one</t>
   </si>
   <si>
-    <t>like</t>
-  </si>
-  <si>
-    <t>buy</t>
-  </si>
-  <si>
     <t>much</t>
   </si>
   <si>
+    <t>made</t>
+  </si>
+  <si>
     <t>use</t>
   </si>
   <si>
+    <t>time</t>
+  </si>
+  <si>
     <t>used</t>
-  </si>
-  <si>
-    <t>time</t>
   </si>
   <si>
     <t>product</t>
@@ -596,7 +605,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:Q64"/>
+  <dimension ref="A1:Q67"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -607,7 +616,7 @@
         <v>11</v>
       </c>
       <c r="J1" t="s">
-        <v>74</v>
+        <v>77</v>
       </c>
     </row>
     <row r="2" spans="1:17">
@@ -665,13 +674,13 @@
         <v>8</v>
       </c>
       <c r="B3">
-        <v>0.3737373737373738</v>
+        <v>0.4108527131782946</v>
       </c>
       <c r="C3">
-        <v>37</v>
+        <v>53</v>
       </c>
       <c r="D3">
-        <v>37</v>
+        <v>53</v>
       </c>
       <c r="E3">
         <v>0</v>
@@ -683,19 +692,19 @@
         <v>0</v>
       </c>
       <c r="H3">
-        <v>62</v>
+        <v>76</v>
       </c>
       <c r="J3" s="1" t="s">
         <v>12</v>
       </c>
       <c r="K3">
-        <v>0.956989247311828</v>
+        <v>0.946236559139785</v>
       </c>
       <c r="L3">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="M3">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="N3">
         <v>1</v>
@@ -707,7 +716,7 @@
         <v>0</v>
       </c>
       <c r="Q3">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="4" spans="1:17">
@@ -715,13 +724,13 @@
         <v>9</v>
       </c>
       <c r="B4">
-        <v>0.3565891472868217</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="C4">
-        <v>46</v>
+        <v>33</v>
       </c>
       <c r="D4">
-        <v>46</v>
+        <v>33</v>
       </c>
       <c r="E4">
         <v>0</v>
@@ -733,19 +742,19 @@
         <v>0</v>
       </c>
       <c r="H4">
-        <v>83</v>
+        <v>66</v>
       </c>
       <c r="J4" s="1" t="s">
         <v>13</v>
       </c>
       <c r="K4">
-        <v>0.890625</v>
+        <v>0.8828125</v>
       </c>
       <c r="L4">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="M4">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="N4">
         <v>1</v>
@@ -757,7 +766,7 @@
         <v>0</v>
       </c>
       <c r="Q4">
-        <v>14</v>
+        <v>15</v>
       </c>
     </row>
     <row r="5" spans="1:17">
@@ -765,13 +774,13 @@
         <v>10</v>
       </c>
       <c r="B5">
-        <v>0.2054054054054054</v>
+        <v>0.2378378378378379</v>
       </c>
       <c r="C5">
-        <v>38</v>
+        <v>44</v>
       </c>
       <c r="D5">
-        <v>38</v>
+        <v>44</v>
       </c>
       <c r="E5">
         <v>0</v>
@@ -783,19 +792,19 @@
         <v>0</v>
       </c>
       <c r="H5">
-        <v>147</v>
+        <v>141</v>
       </c>
       <c r="J5" s="1" t="s">
         <v>14</v>
       </c>
       <c r="K5">
-        <v>0.8840579710144928</v>
+        <v>0.855072463768116</v>
       </c>
       <c r="L5">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="M5">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="N5">
         <v>1</v>
@@ -807,7 +816,7 @@
         <v>0</v>
       </c>
       <c r="Q5">
-        <v>8</v>
+        <v>10</v>
       </c>
     </row>
     <row r="6" spans="1:17">
@@ -815,13 +824,13 @@
         <v>15</v>
       </c>
       <c r="K6">
-        <v>0.8777089783281734</v>
+        <v>0.8498452012383901</v>
       </c>
       <c r="L6">
-        <v>567</v>
+        <v>549</v>
       </c>
       <c r="M6">
-        <v>567</v>
+        <v>549</v>
       </c>
       <c r="N6">
         <v>1</v>
@@ -833,7 +842,7 @@
         <v>0</v>
       </c>
       <c r="Q6">
-        <v>79</v>
+        <v>97</v>
       </c>
     </row>
     <row r="7" spans="1:17">
@@ -841,13 +850,13 @@
         <v>16</v>
       </c>
       <c r="K7">
-        <v>0.7534246575342466</v>
+        <v>0.7532467532467533</v>
       </c>
       <c r="L7">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="M7">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="N7">
         <v>1</v>
@@ -859,7 +868,7 @@
         <v>0</v>
       </c>
       <c r="Q7">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="8" spans="1:17">
@@ -867,13 +876,13 @@
         <v>17</v>
       </c>
       <c r="K8">
-        <v>0.7316017316017316</v>
+        <v>0.7489177489177489</v>
       </c>
       <c r="L8">
-        <v>169</v>
+        <v>173</v>
       </c>
       <c r="M8">
-        <v>169</v>
+        <v>173</v>
       </c>
       <c r="N8">
         <v>1</v>
@@ -885,7 +894,7 @@
         <v>0</v>
       </c>
       <c r="Q8">
-        <v>62</v>
+        <v>58</v>
       </c>
     </row>
     <row r="9" spans="1:17">
@@ -893,13 +902,13 @@
         <v>18</v>
       </c>
       <c r="K9">
-        <v>0.7272727272727273</v>
+        <v>0.684931506849315</v>
       </c>
       <c r="L9">
-        <v>56</v>
+        <v>50</v>
       </c>
       <c r="M9">
-        <v>56</v>
+        <v>50</v>
       </c>
       <c r="N9">
         <v>1</v>
@@ -911,7 +920,7 @@
         <v>0</v>
       </c>
       <c r="Q9">
-        <v>21</v>
+        <v>23</v>
       </c>
     </row>
     <row r="10" spans="1:17">
@@ -919,13 +928,13 @@
         <v>19</v>
       </c>
       <c r="K10">
-        <v>0.7016949152542373</v>
+        <v>0.6829855537720706</v>
       </c>
       <c r="L10">
-        <v>207</v>
+        <v>851</v>
       </c>
       <c r="M10">
-        <v>207</v>
+        <v>851</v>
       </c>
       <c r="N10">
         <v>1</v>
@@ -937,7 +946,7 @@
         <v>0</v>
       </c>
       <c r="Q10">
-        <v>88</v>
+        <v>395</v>
       </c>
     </row>
     <row r="11" spans="1:17">
@@ -945,13 +954,13 @@
         <v>20</v>
       </c>
       <c r="K11">
-        <v>0.6818181818181818</v>
+        <v>0.6745762711864407</v>
       </c>
       <c r="L11">
-        <v>30</v>
+        <v>199</v>
       </c>
       <c r="M11">
-        <v>30</v>
+        <v>199</v>
       </c>
       <c r="N11">
         <v>1</v>
@@ -963,7 +972,7 @@
         <v>0</v>
       </c>
       <c r="Q11">
-        <v>14</v>
+        <v>96</v>
       </c>
     </row>
     <row r="12" spans="1:17">
@@ -971,13 +980,13 @@
         <v>21</v>
       </c>
       <c r="K12">
-        <v>0.6764705882352942</v>
+        <v>0.6714285714285714</v>
       </c>
       <c r="L12">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="M12">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="N12">
         <v>1</v>
@@ -989,7 +998,7 @@
         <v>0</v>
       </c>
       <c r="Q12">
-        <v>22</v>
+        <v>23</v>
       </c>
     </row>
     <row r="13" spans="1:17">
@@ -997,13 +1006,13 @@
         <v>22</v>
       </c>
       <c r="K13">
-        <v>0.6685714285714286</v>
+        <v>0.6619718309859155</v>
       </c>
       <c r="L13">
-        <v>117</v>
+        <v>47</v>
       </c>
       <c r="M13">
-        <v>117</v>
+        <v>47</v>
       </c>
       <c r="N13">
         <v>1</v>
@@ -1015,7 +1024,7 @@
         <v>0</v>
       </c>
       <c r="Q13">
-        <v>58</v>
+        <v>24</v>
       </c>
     </row>
     <row r="14" spans="1:17">
@@ -1023,13 +1032,13 @@
         <v>23</v>
       </c>
       <c r="K14">
-        <v>0.6613162118780096</v>
+        <v>0.6444444444444445</v>
       </c>
       <c r="L14">
-        <v>824</v>
+        <v>29</v>
       </c>
       <c r="M14">
-        <v>824</v>
+        <v>29</v>
       </c>
       <c r="N14">
         <v>1</v>
@@ -1041,7 +1050,7 @@
         <v>0</v>
       </c>
       <c r="Q14">
-        <v>422</v>
+        <v>16</v>
       </c>
     </row>
     <row r="15" spans="1:17">
@@ -1049,13 +1058,13 @@
         <v>24</v>
       </c>
       <c r="K15">
-        <v>0.6521739130434783</v>
+        <v>0.64</v>
       </c>
       <c r="L15">
-        <v>30</v>
+        <v>112</v>
       </c>
       <c r="M15">
-        <v>30</v>
+        <v>112</v>
       </c>
       <c r="N15">
         <v>1</v>
@@ -1067,7 +1076,7 @@
         <v>0</v>
       </c>
       <c r="Q15">
-        <v>16</v>
+        <v>63</v>
       </c>
     </row>
     <row r="16" spans="1:17">
@@ -1075,13 +1084,13 @@
         <v>25</v>
       </c>
       <c r="K16">
-        <v>0.625</v>
+        <v>0.6304347826086957</v>
       </c>
       <c r="L16">
-        <v>45</v>
+        <v>29</v>
       </c>
       <c r="M16">
-        <v>45</v>
+        <v>29</v>
       </c>
       <c r="N16">
         <v>1</v>
@@ -1093,7 +1102,7 @@
         <v>0</v>
       </c>
       <c r="Q16">
-        <v>27</v>
+        <v>17</v>
       </c>
     </row>
     <row r="17" spans="10:17">
@@ -1101,13 +1110,13 @@
         <v>26</v>
       </c>
       <c r="K17">
-        <v>0.6239316239316239</v>
+        <v>0.6153846153846154</v>
       </c>
       <c r="L17">
-        <v>73</v>
+        <v>40</v>
       </c>
       <c r="M17">
-        <v>73</v>
+        <v>40</v>
       </c>
       <c r="N17">
         <v>1</v>
@@ -1119,7 +1128,7 @@
         <v>0</v>
       </c>
       <c r="Q17">
-        <v>44</v>
+        <v>25</v>
       </c>
     </row>
     <row r="18" spans="10:17">
@@ -1153,13 +1162,13 @@
         <v>28</v>
       </c>
       <c r="K19">
-        <v>0.6057692307692307</v>
+        <v>0.5903614457831325</v>
       </c>
       <c r="L19">
-        <v>63</v>
+        <v>49</v>
       </c>
       <c r="M19">
-        <v>63</v>
+        <v>49</v>
       </c>
       <c r="N19">
         <v>1</v>
@@ -1171,7 +1180,7 @@
         <v>0</v>
       </c>
       <c r="Q19">
-        <v>41</v>
+        <v>34</v>
       </c>
     </row>
     <row r="20" spans="10:17">
@@ -1179,13 +1188,13 @@
         <v>29</v>
       </c>
       <c r="K20">
-        <v>0.5808383233532934</v>
+        <v>0.5865384615384616</v>
       </c>
       <c r="L20">
-        <v>97</v>
+        <v>61</v>
       </c>
       <c r="M20">
-        <v>97</v>
+        <v>61</v>
       </c>
       <c r="N20">
         <v>1</v>
@@ -1197,7 +1206,7 @@
         <v>0</v>
       </c>
       <c r="Q20">
-        <v>70</v>
+        <v>43</v>
       </c>
     </row>
     <row r="21" spans="10:17">
@@ -1205,13 +1214,13 @@
         <v>30</v>
       </c>
       <c r="K21">
-        <v>0.5662650602409639</v>
+        <v>0.5789473684210527</v>
       </c>
       <c r="L21">
-        <v>47</v>
+        <v>33</v>
       </c>
       <c r="M21">
-        <v>47</v>
+        <v>33</v>
       </c>
       <c r="N21">
         <v>1</v>
@@ -1223,7 +1232,7 @@
         <v>0</v>
       </c>
       <c r="Q21">
-        <v>36</v>
+        <v>24</v>
       </c>
     </row>
     <row r="22" spans="10:17">
@@ -1231,13 +1240,13 @@
         <v>31</v>
       </c>
       <c r="K22">
-        <v>0.5492957746478874</v>
+        <v>0.5726495726495726</v>
       </c>
       <c r="L22">
-        <v>39</v>
+        <v>67</v>
       </c>
       <c r="M22">
-        <v>39</v>
+        <v>67</v>
       </c>
       <c r="N22">
         <v>1</v>
@@ -1249,7 +1258,7 @@
         <v>0</v>
       </c>
       <c r="Q22">
-        <v>32</v>
+        <v>50</v>
       </c>
     </row>
     <row r="23" spans="10:17">
@@ -1257,13 +1266,13 @@
         <v>32</v>
       </c>
       <c r="K23">
-        <v>0.5488721804511278</v>
+        <v>0.5714285714285714</v>
       </c>
       <c r="L23">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="M23">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="N23">
         <v>1</v>
@@ -1275,7 +1284,7 @@
         <v>0</v>
       </c>
       <c r="Q23">
-        <v>60</v>
+        <v>57</v>
       </c>
     </row>
     <row r="24" spans="10:17">
@@ -1283,13 +1292,13 @@
         <v>33</v>
       </c>
       <c r="K24">
-        <v>0.5263157894736842</v>
+        <v>0.5389221556886228</v>
       </c>
       <c r="L24">
-        <v>30</v>
+        <v>90</v>
       </c>
       <c r="M24">
-        <v>30</v>
+        <v>90</v>
       </c>
       <c r="N24">
         <v>1</v>
@@ -1301,7 +1310,7 @@
         <v>0</v>
       </c>
       <c r="Q24">
-        <v>27</v>
+        <v>77</v>
       </c>
     </row>
     <row r="25" spans="10:17">
@@ -1309,13 +1318,13 @@
         <v>34</v>
       </c>
       <c r="K25">
-        <v>0.5142857142857142</v>
+        <v>0.5147058823529411</v>
       </c>
       <c r="L25">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="M25">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="N25">
         <v>1</v>
@@ -1327,7 +1336,7 @@
         <v>0</v>
       </c>
       <c r="Q25">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="26" spans="10:17">
@@ -1335,13 +1344,13 @@
         <v>35</v>
       </c>
       <c r="K26">
-        <v>0.4868421052631579</v>
+        <v>0.5</v>
       </c>
       <c r="L26">
-        <v>37</v>
+        <v>83</v>
       </c>
       <c r="M26">
-        <v>37</v>
+        <v>83</v>
       </c>
       <c r="N26">
         <v>1</v>
@@ -1353,7 +1362,7 @@
         <v>0</v>
       </c>
       <c r="Q26">
-        <v>39</v>
+        <v>83</v>
       </c>
     </row>
     <row r="27" spans="10:17">
@@ -1361,13 +1370,13 @@
         <v>36</v>
       </c>
       <c r="K27">
-        <v>0.4397590361445783</v>
+        <v>0.4861111111111111</v>
       </c>
       <c r="L27">
-        <v>73</v>
+        <v>35</v>
       </c>
       <c r="M27">
-        <v>73</v>
+        <v>35</v>
       </c>
       <c r="N27">
         <v>1</v>
@@ -1379,7 +1388,7 @@
         <v>0</v>
       </c>
       <c r="Q27">
-        <v>93</v>
+        <v>37</v>
       </c>
     </row>
     <row r="28" spans="10:17">
@@ -1387,13 +1396,13 @@
         <v>37</v>
       </c>
       <c r="K28">
-        <v>0.4264705882352941</v>
+        <v>0.4603174603174603</v>
       </c>
       <c r="L28">
-        <v>174</v>
+        <v>29</v>
       </c>
       <c r="M28">
-        <v>174</v>
+        <v>29</v>
       </c>
       <c r="N28">
         <v>1</v>
@@ -1405,7 +1414,7 @@
         <v>0</v>
       </c>
       <c r="Q28">
-        <v>234</v>
+        <v>34</v>
       </c>
     </row>
     <row r="29" spans="10:17">
@@ -1413,13 +1422,13 @@
         <v>38</v>
       </c>
       <c r="K29">
-        <v>0.4202334630350195</v>
+        <v>0.4444444444444444</v>
       </c>
       <c r="L29">
-        <v>108</v>
+        <v>36</v>
       </c>
       <c r="M29">
-        <v>108</v>
+        <v>36</v>
       </c>
       <c r="N29">
         <v>1</v>
@@ -1431,7 +1440,7 @@
         <v>0</v>
       </c>
       <c r="Q29">
-        <v>149</v>
+        <v>45</v>
       </c>
     </row>
     <row r="30" spans="10:17">
@@ -1439,13 +1448,13 @@
         <v>39</v>
       </c>
       <c r="K30">
-        <v>0.41</v>
+        <v>0.4387254901960784</v>
       </c>
       <c r="L30">
-        <v>41</v>
+        <v>179</v>
       </c>
       <c r="M30">
-        <v>41</v>
+        <v>179</v>
       </c>
       <c r="N30">
         <v>1</v>
@@ -1457,7 +1466,7 @@
         <v>0</v>
       </c>
       <c r="Q30">
-        <v>59</v>
+        <v>229</v>
       </c>
     </row>
     <row r="31" spans="10:17">
@@ -1465,13 +1474,13 @@
         <v>40</v>
       </c>
       <c r="K31">
-        <v>0.3963963963963964</v>
+        <v>0.4342105263157895</v>
       </c>
       <c r="L31">
-        <v>44</v>
+        <v>33</v>
       </c>
       <c r="M31">
-        <v>44</v>
+        <v>33</v>
       </c>
       <c r="N31">
         <v>1</v>
@@ -1483,7 +1492,7 @@
         <v>0</v>
       </c>
       <c r="Q31">
-        <v>67</v>
+        <v>43</v>
       </c>
     </row>
     <row r="32" spans="10:17">
@@ -1491,13 +1500,13 @@
         <v>41</v>
       </c>
       <c r="K32">
-        <v>0.3815789473684211</v>
+        <v>0.4085603112840467</v>
       </c>
       <c r="L32">
-        <v>29</v>
+        <v>105</v>
       </c>
       <c r="M32">
-        <v>29</v>
+        <v>105</v>
       </c>
       <c r="N32">
         <v>1</v>
@@ -1509,7 +1518,7 @@
         <v>0</v>
       </c>
       <c r="Q32">
-        <v>47</v>
+        <v>152</v>
       </c>
     </row>
     <row r="33" spans="10:17">
@@ -1517,13 +1526,13 @@
         <v>42</v>
       </c>
       <c r="K33">
-        <v>0.3779904306220095</v>
+        <v>0.3984962406015037</v>
       </c>
       <c r="L33">
-        <v>79</v>
+        <v>53</v>
       </c>
       <c r="M33">
-        <v>79</v>
+        <v>53</v>
       </c>
       <c r="N33">
         <v>1</v>
@@ -1535,7 +1544,7 @@
         <v>0</v>
       </c>
       <c r="Q33">
-        <v>130</v>
+        <v>80</v>
       </c>
     </row>
     <row r="34" spans="10:17">
@@ -1543,13 +1552,13 @@
         <v>43</v>
       </c>
       <c r="K34">
-        <v>0.3767123287671233</v>
+        <v>0.3564356435643564</v>
       </c>
       <c r="L34">
-        <v>275</v>
+        <v>36</v>
       </c>
       <c r="M34">
-        <v>275</v>
+        <v>36</v>
       </c>
       <c r="N34">
         <v>1</v>
@@ -1561,7 +1570,7 @@
         <v>0</v>
       </c>
       <c r="Q34">
-        <v>455</v>
+        <v>65</v>
       </c>
     </row>
     <row r="35" spans="10:17">
@@ -1569,13 +1578,13 @@
         <v>44</v>
       </c>
       <c r="K35">
-        <v>0.3533834586466165</v>
+        <v>0.3520547945205479</v>
       </c>
       <c r="L35">
-        <v>47</v>
+        <v>257</v>
       </c>
       <c r="M35">
-        <v>47</v>
+        <v>257</v>
       </c>
       <c r="N35">
         <v>1</v>
@@ -1587,7 +1596,7 @@
         <v>0</v>
       </c>
       <c r="Q35">
-        <v>86</v>
+        <v>473</v>
       </c>
     </row>
     <row r="36" spans="10:17">
@@ -1595,13 +1604,13 @@
         <v>45</v>
       </c>
       <c r="K36">
-        <v>0.3196986006458558</v>
+        <v>0.3362068965517241</v>
       </c>
       <c r="L36">
-        <v>297</v>
+        <v>312</v>
       </c>
       <c r="M36">
-        <v>297</v>
+        <v>313</v>
       </c>
       <c r="N36">
         <v>1</v>
@@ -1610,10 +1619,10 @@
         <v>0</v>
       </c>
       <c r="P36" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q36">
-        <v>632</v>
+        <v>616</v>
       </c>
     </row>
     <row r="37" spans="10:17">
@@ -1621,13 +1630,13 @@
         <v>46</v>
       </c>
       <c r="K37">
-        <v>0.316546762589928</v>
+        <v>0.3301435406698565</v>
       </c>
       <c r="L37">
-        <v>44</v>
+        <v>69</v>
       </c>
       <c r="M37">
-        <v>44</v>
+        <v>69</v>
       </c>
       <c r="N37">
         <v>1</v>
@@ -1639,7 +1648,7 @@
         <v>0</v>
       </c>
       <c r="Q37">
-        <v>95</v>
+        <v>140</v>
       </c>
     </row>
     <row r="38" spans="10:17">
@@ -1647,13 +1656,13 @@
         <v>47</v>
       </c>
       <c r="K38">
-        <v>0.3148148148148148</v>
+        <v>0.31</v>
       </c>
       <c r="L38">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="M38">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="N38">
         <v>1</v>
@@ -1665,7 +1674,7 @@
         <v>0</v>
       </c>
       <c r="Q38">
-        <v>74</v>
+        <v>69</v>
       </c>
     </row>
     <row r="39" spans="10:17">
@@ -1673,13 +1682,13 @@
         <v>48</v>
       </c>
       <c r="K39">
-        <v>0.2980132450331126</v>
+        <v>0.2972972972972973</v>
       </c>
       <c r="L39">
-        <v>45</v>
+        <v>33</v>
       </c>
       <c r="M39">
-        <v>45</v>
+        <v>33</v>
       </c>
       <c r="N39">
         <v>1</v>
@@ -1691,7 +1700,7 @@
         <v>0</v>
       </c>
       <c r="Q39">
-        <v>106</v>
+        <v>78</v>
       </c>
     </row>
     <row r="40" spans="10:17">
@@ -1699,13 +1708,13 @@
         <v>49</v>
       </c>
       <c r="K40">
-        <v>0.2852664576802508</v>
+        <v>0.2877697841726619</v>
       </c>
       <c r="L40">
-        <v>91</v>
+        <v>40</v>
       </c>
       <c r="M40">
-        <v>91</v>
+        <v>40</v>
       </c>
       <c r="N40">
         <v>1</v>
@@ -1717,7 +1726,7 @@
         <v>0</v>
       </c>
       <c r="Q40">
-        <v>228</v>
+        <v>99</v>
       </c>
     </row>
     <row r="41" spans="10:17">
@@ -1725,25 +1734,25 @@
         <v>50</v>
       </c>
       <c r="K41">
-        <v>0.2794701986754967</v>
+        <v>0.2807570977917981</v>
       </c>
       <c r="L41">
-        <v>211</v>
+        <v>89</v>
       </c>
       <c r="M41">
-        <v>211</v>
+        <v>91</v>
       </c>
       <c r="N41">
-        <v>1</v>
+        <v>0.98</v>
       </c>
       <c r="O41">
-        <v>0</v>
+        <v>0.02000000000000002</v>
       </c>
       <c r="P41" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q41">
-        <v>544</v>
+        <v>228</v>
       </c>
     </row>
     <row r="42" spans="10:17">
@@ -1751,13 +1760,13 @@
         <v>51</v>
       </c>
       <c r="K42">
-        <v>0.2647058823529412</v>
+        <v>0.2781456953642384</v>
       </c>
       <c r="L42">
-        <v>207</v>
+        <v>42</v>
       </c>
       <c r="M42">
-        <v>207</v>
+        <v>42</v>
       </c>
       <c r="N42">
         <v>1</v>
@@ -1769,7 +1778,7 @@
         <v>0</v>
       </c>
       <c r="Q42">
-        <v>575</v>
+        <v>109</v>
       </c>
     </row>
     <row r="43" spans="10:17">
@@ -1777,25 +1786,25 @@
         <v>52</v>
       </c>
       <c r="K43">
-        <v>0.2377049180327869</v>
+        <v>0.2692307692307692</v>
       </c>
       <c r="L43">
-        <v>29</v>
+        <v>210</v>
       </c>
       <c r="M43">
-        <v>29</v>
+        <v>212</v>
       </c>
       <c r="N43">
-        <v>1</v>
+        <v>0.99</v>
       </c>
       <c r="O43">
-        <v>0</v>
+        <v>0.01000000000000001</v>
       </c>
       <c r="P43" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q43">
-        <v>93</v>
+        <v>570</v>
       </c>
     </row>
     <row r="44" spans="10:17">
@@ -1803,25 +1812,25 @@
         <v>53</v>
       </c>
       <c r="K44">
-        <v>0.2158469945355191</v>
+        <v>0.2685185185185185</v>
       </c>
       <c r="L44">
+        <v>29</v>
+      </c>
+      <c r="M44">
+        <v>29</v>
+      </c>
+      <c r="N44">
+        <v>1</v>
+      </c>
+      <c r="O44">
+        <v>0</v>
+      </c>
+      <c r="P44" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q44">
         <v>79</v>
-      </c>
-      <c r="M44">
-        <v>84</v>
-      </c>
-      <c r="N44">
-        <v>0.9399999999999999</v>
-      </c>
-      <c r="O44">
-        <v>0.06000000000000005</v>
-      </c>
-      <c r="P44" t="b">
-        <v>1</v>
-      </c>
-      <c r="Q44">
-        <v>287</v>
       </c>
     </row>
     <row r="45" spans="10:17">
@@ -1829,13 +1838,13 @@
         <v>54</v>
       </c>
       <c r="K45">
-        <v>0.206140350877193</v>
+        <v>0.2679045092838196</v>
       </c>
       <c r="L45">
-        <v>94</v>
+        <v>202</v>
       </c>
       <c r="M45">
-        <v>94</v>
+        <v>203</v>
       </c>
       <c r="N45">
         <v>1</v>
@@ -1844,10 +1853,10 @@
         <v>0</v>
       </c>
       <c r="P45" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q45">
-        <v>362</v>
+        <v>552</v>
       </c>
     </row>
     <row r="46" spans="10:17">
@@ -1855,25 +1864,25 @@
         <v>55</v>
       </c>
       <c r="K46">
-        <v>0.1937799043062201</v>
+        <v>0.2622950819672131</v>
       </c>
       <c r="L46">
-        <v>81</v>
+        <v>32</v>
       </c>
       <c r="M46">
-        <v>82</v>
+        <v>32</v>
       </c>
       <c r="N46">
-        <v>0.99</v>
+        <v>1</v>
       </c>
       <c r="O46">
-        <v>0.01000000000000001</v>
+        <v>0</v>
       </c>
       <c r="P46" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q46">
-        <v>337</v>
+        <v>90</v>
       </c>
     </row>
     <row r="47" spans="10:17">
@@ -1881,25 +1890,25 @@
         <v>56</v>
       </c>
       <c r="K47">
-        <v>0.1926829268292683</v>
+        <v>0.2348993288590604</v>
       </c>
       <c r="L47">
-        <v>79</v>
+        <v>35</v>
       </c>
       <c r="M47">
-        <v>80</v>
+        <v>35</v>
       </c>
       <c r="N47">
-        <v>0.99</v>
+        <v>1</v>
       </c>
       <c r="O47">
-        <v>0.01000000000000001</v>
+        <v>0</v>
       </c>
       <c r="P47" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q47">
-        <v>331</v>
+        <v>114</v>
       </c>
     </row>
     <row r="48" spans="10:17">
@@ -1907,13 +1916,13 @@
         <v>57</v>
       </c>
       <c r="K48">
-        <v>0.1858974358974359</v>
+        <v>0.2130584192439862</v>
       </c>
       <c r="L48">
-        <v>29</v>
+        <v>62</v>
       </c>
       <c r="M48">
-        <v>29</v>
+        <v>62</v>
       </c>
       <c r="N48">
         <v>1</v>
@@ -1925,7 +1934,7 @@
         <v>0</v>
       </c>
       <c r="Q48">
-        <v>127</v>
+        <v>229</v>
       </c>
     </row>
     <row r="49" spans="10:17">
@@ -1933,25 +1942,25 @@
         <v>58</v>
       </c>
       <c r="K49">
-        <v>0.1856540084388186</v>
+        <v>0.2119565217391304</v>
       </c>
       <c r="L49">
-        <v>44</v>
+        <v>78</v>
       </c>
       <c r="M49">
-        <v>45</v>
+        <v>81</v>
       </c>
       <c r="N49">
-        <v>0.98</v>
+        <v>0.96</v>
       </c>
       <c r="O49">
-        <v>0.02000000000000002</v>
+        <v>0.04000000000000004</v>
       </c>
       <c r="P49" t="b">
         <v>1</v>
       </c>
       <c r="Q49">
-        <v>193</v>
+        <v>290</v>
       </c>
     </row>
     <row r="50" spans="10:17">
@@ -1959,13 +1968,13 @@
         <v>59</v>
       </c>
       <c r="K50">
-        <v>0.1818181818181818</v>
+        <v>0.201219512195122</v>
       </c>
       <c r="L50">
-        <v>80</v>
+        <v>33</v>
       </c>
       <c r="M50">
-        <v>80</v>
+        <v>33</v>
       </c>
       <c r="N50">
         <v>1</v>
@@ -1977,7 +1986,7 @@
         <v>0</v>
       </c>
       <c r="Q50">
-        <v>360</v>
+        <v>131</v>
       </c>
     </row>
     <row r="51" spans="10:17">
@@ -1985,13 +1994,13 @@
         <v>60</v>
       </c>
       <c r="K51">
-        <v>0.1786941580756014</v>
+        <v>0.1957040572792363</v>
       </c>
       <c r="L51">
-        <v>52</v>
+        <v>82</v>
       </c>
       <c r="M51">
-        <v>52</v>
+        <v>82</v>
       </c>
       <c r="N51">
         <v>1</v>
@@ -2003,7 +2012,7 @@
         <v>0</v>
       </c>
       <c r="Q51">
-        <v>239</v>
+        <v>337</v>
       </c>
     </row>
     <row r="52" spans="10:17">
@@ -2011,13 +2020,13 @@
         <v>61</v>
       </c>
       <c r="K52">
-        <v>0.1768292682926829</v>
+        <v>0.1907894736842105</v>
       </c>
       <c r="L52">
-        <v>29</v>
+        <v>87</v>
       </c>
       <c r="M52">
-        <v>29</v>
+        <v>87</v>
       </c>
       <c r="N52">
         <v>1</v>
@@ -2029,7 +2038,7 @@
         <v>0</v>
       </c>
       <c r="Q52">
-        <v>135</v>
+        <v>369</v>
       </c>
     </row>
     <row r="53" spans="10:17">
@@ -2037,13 +2046,13 @@
         <v>62</v>
       </c>
       <c r="K53">
-        <v>0.1666666666666667</v>
+        <v>0.1849148418491484</v>
       </c>
       <c r="L53">
-        <v>45</v>
+        <v>76</v>
       </c>
       <c r="M53">
-        <v>45</v>
+        <v>76</v>
       </c>
       <c r="N53">
         <v>1</v>
@@ -2055,7 +2064,7 @@
         <v>0</v>
       </c>
       <c r="Q53">
-        <v>225</v>
+        <v>335</v>
       </c>
     </row>
     <row r="54" spans="10:17">
@@ -2063,25 +2072,25 @@
         <v>63</v>
       </c>
       <c r="K54">
-        <v>0.1666666666666667</v>
+        <v>0.1799544419134396</v>
       </c>
       <c r="L54">
-        <v>45</v>
+        <v>79</v>
       </c>
       <c r="M54">
-        <v>46</v>
+        <v>80</v>
       </c>
       <c r="N54">
-        <v>0.98</v>
+        <v>0.99</v>
       </c>
       <c r="O54">
-        <v>0.02000000000000002</v>
+        <v>0.01000000000000001</v>
       </c>
       <c r="P54" t="b">
         <v>1</v>
       </c>
       <c r="Q54">
-        <v>225</v>
+        <v>360</v>
       </c>
     </row>
     <row r="55" spans="10:17">
@@ -2089,25 +2098,25 @@
         <v>64</v>
       </c>
       <c r="K55">
-        <v>0.1284153005464481</v>
+        <v>0.1784386617100372</v>
       </c>
       <c r="L55">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="M55">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="N55">
-        <v>1</v>
+        <v>0.98</v>
       </c>
       <c r="O55">
-        <v>0</v>
+        <v>0.02000000000000002</v>
       </c>
       <c r="P55" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q55">
-        <v>319</v>
+        <v>221</v>
       </c>
     </row>
     <row r="56" spans="10:17">
@@ -2115,25 +2124,25 @@
         <v>65</v>
       </c>
       <c r="K56">
-        <v>0.125</v>
+        <v>0.1666666666666667</v>
       </c>
       <c r="L56">
-        <v>31</v>
+        <v>45</v>
       </c>
       <c r="M56">
-        <v>31</v>
+        <v>46</v>
       </c>
       <c r="N56">
-        <v>1</v>
+        <v>0.98</v>
       </c>
       <c r="O56">
-        <v>0</v>
+        <v>0.02000000000000002</v>
       </c>
       <c r="P56" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q56">
-        <v>217</v>
+        <v>225</v>
       </c>
     </row>
     <row r="57" spans="10:17">
@@ -2141,25 +2150,25 @@
         <v>66</v>
       </c>
       <c r="K57">
-        <v>0.1161048689138577</v>
+        <v>0.1448087431693989</v>
       </c>
       <c r="L57">
-        <v>124</v>
+        <v>53</v>
       </c>
       <c r="M57">
-        <v>128</v>
+        <v>53</v>
       </c>
       <c r="N57">
-        <v>0.97</v>
+        <v>1</v>
       </c>
       <c r="O57">
-        <v>0.03000000000000003</v>
+        <v>0</v>
       </c>
       <c r="P57" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q57">
-        <v>944</v>
+        <v>313</v>
       </c>
     </row>
     <row r="58" spans="10:17">
@@ -2167,25 +2176,25 @@
         <v>67</v>
       </c>
       <c r="K58">
-        <v>0.1147776183644189</v>
+        <v>0.1438848920863309</v>
       </c>
       <c r="L58">
-        <v>80</v>
+        <v>100</v>
       </c>
       <c r="M58">
-        <v>81</v>
+        <v>103</v>
       </c>
       <c r="N58">
-        <v>0.99</v>
+        <v>0.97</v>
       </c>
       <c r="O58">
-        <v>0.01000000000000001</v>
+        <v>0.03000000000000003</v>
       </c>
       <c r="P58" t="b">
         <v>1</v>
       </c>
       <c r="Q58">
-        <v>617</v>
+        <v>595</v>
       </c>
     </row>
     <row r="59" spans="10:17">
@@ -2193,25 +2202,25 @@
         <v>68</v>
       </c>
       <c r="K59">
-        <v>0.1017811704834606</v>
+        <v>0.1435643564356436</v>
       </c>
       <c r="L59">
-        <v>40</v>
+        <v>29</v>
       </c>
       <c r="M59">
-        <v>41</v>
+        <v>30</v>
       </c>
       <c r="N59">
-        <v>0.98</v>
+        <v>0.97</v>
       </c>
       <c r="O59">
-        <v>0.02000000000000002</v>
+        <v>0.03000000000000003</v>
       </c>
       <c r="P59" t="b">
         <v>1</v>
       </c>
       <c r="Q59">
-        <v>353</v>
+        <v>173</v>
       </c>
     </row>
     <row r="60" spans="10:17">
@@ -2219,25 +2228,25 @@
         <v>69</v>
       </c>
       <c r="K60">
-        <v>0.09166666666666666</v>
+        <v>0.138655462184874</v>
       </c>
       <c r="L60">
         <v>33</v>
       </c>
       <c r="M60">
-        <v>38</v>
+        <v>33</v>
       </c>
       <c r="N60">
-        <v>0.87</v>
+        <v>1</v>
       </c>
       <c r="O60">
-        <v>0.13</v>
+        <v>0</v>
       </c>
       <c r="P60" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q60">
-        <v>327</v>
+        <v>205</v>
       </c>
     </row>
     <row r="61" spans="10:17">
@@ -2245,25 +2254,25 @@
         <v>70</v>
       </c>
       <c r="K61">
-        <v>0.08631211857018309</v>
+        <v>0.114018691588785</v>
       </c>
       <c r="L61">
-        <v>99</v>
+        <v>122</v>
       </c>
       <c r="M61">
-        <v>109</v>
+        <v>124</v>
       </c>
       <c r="N61">
-        <v>0.91</v>
+        <v>0.98</v>
       </c>
       <c r="O61">
-        <v>0.08999999999999997</v>
+        <v>0.02000000000000002</v>
       </c>
       <c r="P61" t="b">
         <v>1</v>
       </c>
       <c r="Q61">
-        <v>1048</v>
+        <v>948</v>
       </c>
     </row>
     <row r="62" spans="10:17">
@@ -2271,25 +2280,25 @@
         <v>71</v>
       </c>
       <c r="K62">
-        <v>0.07766990291262135</v>
+        <v>0.09116022099447514</v>
       </c>
       <c r="L62">
-        <v>40</v>
+        <v>33</v>
       </c>
       <c r="M62">
-        <v>47</v>
+        <v>36</v>
       </c>
       <c r="N62">
-        <v>0.85</v>
+        <v>0.92</v>
       </c>
       <c r="O62">
-        <v>0.15</v>
+        <v>0.07999999999999996</v>
       </c>
       <c r="P62" t="b">
         <v>1</v>
       </c>
       <c r="Q62">
-        <v>475</v>
+        <v>329</v>
       </c>
     </row>
     <row r="63" spans="10:17">
@@ -2297,25 +2306,25 @@
         <v>72</v>
       </c>
       <c r="K63">
-        <v>0.07380073800738007</v>
+        <v>0.0851581508515815</v>
       </c>
       <c r="L63">
-        <v>40</v>
+        <v>35</v>
       </c>
       <c r="M63">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="N63">
-        <v>1</v>
+        <v>0.92</v>
       </c>
       <c r="O63">
-        <v>0</v>
+        <v>0.07999999999999996</v>
       </c>
       <c r="P63" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q63">
-        <v>502</v>
+        <v>376</v>
       </c>
     </row>
     <row r="64" spans="10:17">
@@ -2323,25 +2332,103 @@
         <v>73</v>
       </c>
       <c r="K64">
-        <v>0.04122340425531915</v>
+        <v>0.0805892547660312</v>
       </c>
       <c r="L64">
-        <v>31</v>
+        <v>93</v>
       </c>
       <c r="M64">
-        <v>46</v>
+        <v>96</v>
       </c>
       <c r="N64">
-        <v>0.67</v>
+        <v>0.97</v>
       </c>
       <c r="O64">
-        <v>0.33</v>
+        <v>0.03000000000000003</v>
       </c>
       <c r="P64" t="b">
         <v>1</v>
       </c>
       <c r="Q64">
-        <v>721</v>
+        <v>1061</v>
+      </c>
+    </row>
+    <row r="65" spans="10:17">
+      <c r="J65" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="K65">
+        <v>0.07578558225508318</v>
+      </c>
+      <c r="L65">
+        <v>41</v>
+      </c>
+      <c r="M65">
+        <v>42</v>
+      </c>
+      <c r="N65">
+        <v>0.98</v>
+      </c>
+      <c r="O65">
+        <v>0.02000000000000002</v>
+      </c>
+      <c r="P65" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q65">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="66" spans="10:17">
+      <c r="J66" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="K66">
+        <v>0.07543520309477757</v>
+      </c>
+      <c r="L66">
+        <v>39</v>
+      </c>
+      <c r="M66">
+        <v>44</v>
+      </c>
+      <c r="N66">
+        <v>0.89</v>
+      </c>
+      <c r="O66">
+        <v>0.11</v>
+      </c>
+      <c r="P66" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q66">
+        <v>478</v>
+      </c>
+    </row>
+    <row r="67" spans="10:17">
+      <c r="J67" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="K67">
+        <v>0.03978779840848806</v>
+      </c>
+      <c r="L67">
+        <v>30</v>
+      </c>
+      <c r="M67">
+        <v>43</v>
+      </c>
+      <c r="N67">
+        <v>0.7</v>
+      </c>
+      <c r="O67">
+        <v>0.3</v>
+      </c>
+      <c r="P67" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q67">
+        <v>724</v>
       </c>
     </row>
   </sheetData>
